--- a/examples/sources/data/unsolved/to_schedule/2019-02-11.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-11.xlsx
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>43507</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" s="2">
         <v>43507</v>
